--- a/Annual2017-EU/data/extras/Neo4jModel-NodesAdded.xlsx
+++ b/Annual2017-EU/data/extras/Neo4jModel-NodesAdded.xlsx
@@ -18,7 +18,7 @@
     <definedName name="DataTypes">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Neo4jModel!$A$1:$G$15</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -54,15 +54,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Person1</t>
-  </si>
-  <si>
     <t>enrolledIn</t>
   </si>
   <si>
-    <t>Study1</t>
-  </si>
-  <si>
     <t>firstName</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
     <t>treatment</t>
   </si>
   <si>
-    <t>Treat1</t>
-  </si>
-  <si>
     <t>age</t>
   </si>
   <si>
@@ -90,27 +81,18 @@
     <t>protocol</t>
   </si>
   <si>
-    <t>Protocol1</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
     <t>Placebo</t>
   </si>
   <si>
-    <t>Treat2</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>Sugar water</t>
   </si>
   <si>
-    <t>Person2</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
@@ -130,6 +112,24 @@
   </si>
   <si>
     <t>Phase 2 Trial of Serum 114 in patients with acute episodes of ultraviolence</t>
+  </si>
+  <si>
+    <t>PERSON2</t>
+  </si>
+  <si>
+    <t>STUDY1</t>
+  </si>
+  <si>
+    <t>PERSON1</t>
+  </si>
+  <si>
+    <t>TREAT1</t>
+  </si>
+  <si>
+    <t>PROTOCOL1</t>
+  </si>
+  <si>
+    <t>TREAT2</t>
   </si>
 </sst>
 </file>
@@ -695,7 +695,7 @@
   <dimension ref="A1:AMK27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,39 +745,39 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="G3" s="13" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="13">
         <v>32</v>
@@ -785,102 +785,102 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" s="13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -888,13 +888,13 @@
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="E10" s="14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -902,13 +902,13 @@
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="E11" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -916,13 +916,13 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="E12" s="14" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1040,6 +1040,7 @@
       <c r="G27" s="16"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="CV6fwQO9twKTFhTUfZ9m/ryIaZ5r/E5UPUoGBsrzN2HPlwmFfjgi46rYKSmy4Ce/EkrWo+bdzD9PBp26PpcZ/g==" saltValue="jbO3HAZDzK3P+j1ywT3gxA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup scale="83" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Annual2017-EU/data/extras/Neo4jModel-NodesAdded.xlsx
+++ b/Annual2017-EU/data/extras/Neo4jModel-NodesAdded.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t xml:space="preserve">Table 1. Nodes and Relations</t>
   </si>
@@ -49,16 +49,16 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Person1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrolledIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firstName</t>
+    <t xml:space="preserve">PERSON1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enrolledin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STUDY1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firstname</t>
   </si>
   <si>
     <t xml:space="preserve">Bob</t>
@@ -67,13 +67,13 @@
     <t xml:space="preserve">treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">Treat1</t>
+    <t xml:space="preserve">TREAT1</t>
   </si>
   <si>
     <t xml:space="preserve">age</t>
   </si>
   <si>
-    <t xml:space="preserve">treatmentArm</t>
+    <t xml:space="preserve">treatmentarm</t>
   </si>
   <si>
     <t xml:space="preserve">title</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">Protocol1</t>
+    <t xml:space="preserve">PROTOCOL1</t>
   </si>
   <si>
     <t xml:space="preserve">label</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">Placebo</t>
   </si>
   <si>
-    <t xml:space="preserve">Treat2</t>
+    <t xml:space="preserve">TREAT2</t>
   </si>
   <si>
     <t xml:space="preserve">description</t>
@@ -103,10 +103,7 @@
     <t xml:space="preserve">Sugar water</t>
   </si>
   <si>
-    <t xml:space="preserve">Person2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enrolledin</t>
+    <t xml:space="preserve">PERSON2</t>
   </si>
   <si>
     <t xml:space="preserve">phase</t>
@@ -628,7 +625,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -637,7 +634,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="14.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="36.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="8" style="3" width="8.72"/>
@@ -676,7 +673,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
@@ -696,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
         <v>8</v>
       </c>
@@ -756,7 +753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
@@ -781,7 +778,7 @@
         <v>26</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>10</v>
@@ -790,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>28</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,7 +810,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -824,10 +821,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>31</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +838,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="23" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -855,7 +852,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
